--- a/data/trans_orig/P05A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>451651</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>426239</v>
+        <v>424618</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>477874</v>
+        <v>474247</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6441125368218861</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6078718899594876</v>
+        <v>0.6055600075336288</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6815098394129869</v>
+        <v>0.6763373118084444</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>406</v>
@@ -764,19 +764,19 @@
         <v>435804</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>409658</v>
+        <v>409371</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>460132</v>
+        <v>460413</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6286635086694213</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5909474853430355</v>
+        <v>0.5905326118808336</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6637571521836115</v>
+        <v>0.6641625827932097</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>833</v>
@@ -785,19 +785,19 @@
         <v>887455</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>848401</v>
+        <v>851445</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>924423</v>
+        <v>923377</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6364322075041239</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6084251496837514</v>
+        <v>0.6106080621300992</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6629434275770857</v>
+        <v>0.662193125956318</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>212830</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>188522</v>
+        <v>189532</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>235861</v>
+        <v>237955</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3035234837214949</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2688566345574543</v>
+        <v>0.2702973275905117</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3363688412678112</v>
+        <v>0.3393548204935019</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>199</v>
@@ -835,19 +835,19 @@
         <v>214263</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>191628</v>
+        <v>190194</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>240763</v>
+        <v>241558</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3090828196623804</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2764309822513003</v>
+        <v>0.2743616392620326</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3473100463655953</v>
+        <v>0.3484563443292968</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>408</v>
@@ -856,19 +856,19 @@
         <v>427094</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>389937</v>
+        <v>393303</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>461104</v>
+        <v>460689</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3062872517975638</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2796403843216115</v>
+        <v>0.282054787439785</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3306774922997486</v>
+        <v>0.3303796874711269</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>36718</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25883</v>
+        <v>26278</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49627</v>
+        <v>50971</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05236397945661904</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03691208450603333</v>
+        <v>0.03747560037604428</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07077387675752764</v>
+        <v>0.07269179869705024</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>42</v>
@@ -906,19 +906,19 @@
         <v>43156</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30776</v>
+        <v>32596</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57732</v>
+        <v>57170</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06225367166819817</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04439553896546247</v>
+        <v>0.04702068813704142</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08328032187856825</v>
+        <v>0.08247025164698912</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>78</v>
@@ -927,19 +927,19 @@
         <v>79873</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>64955</v>
+        <v>63774</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>99782</v>
+        <v>97438</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05728054069831227</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04658228259333513</v>
+        <v>0.04573501388125602</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07155818244174636</v>
+        <v>0.06987677996389467</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>566756</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>532099</v>
+        <v>535175</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>600826</v>
+        <v>601968</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5595873863311919</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5253691989836906</v>
+        <v>0.5284062104156826</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.593226750463829</v>
+        <v>0.5943545801913993</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>519</v>
@@ -1052,19 +1052,19 @@
         <v>573723</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>540755</v>
+        <v>539930</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>605778</v>
+        <v>605000</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5587391767230935</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5266318819167153</v>
+        <v>0.5258283889649549</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5899566570409389</v>
+        <v>0.5891985048102217</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1045</v>
@@ -1073,19 +1073,19 @@
         <v>1140479</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1095019</v>
+        <v>1094147</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1189706</v>
+        <v>1187309</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5591603689047907</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5368718518081403</v>
+        <v>0.5364444431320958</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5832956559288278</v>
+        <v>0.5821202826725318</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>360086</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>331387</v>
+        <v>327199</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>393672</v>
+        <v>389598</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3555316570179656</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3271958830360124</v>
+        <v>0.3230601590102664</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3886926213559052</v>
+        <v>0.3846699793230972</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>323</v>
@@ -1123,19 +1123,19 @@
         <v>349130</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>321005</v>
+        <v>319690</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>380494</v>
+        <v>382878</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3400110892278392</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3126212356558838</v>
+        <v>0.311340298253897</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3705567910921831</v>
+        <v>0.372878049590156</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>651</v>
@@ -1144,19 +1144,19 @@
         <v>709216</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>662969</v>
+        <v>667934</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>753591</v>
+        <v>753512</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3477180778616485</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3250442955326626</v>
+        <v>0.3274783125747114</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3694745037627252</v>
+        <v>0.3694358065261232</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>85968</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67172</v>
+        <v>69185</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105350</v>
+        <v>107047</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08488095665084244</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06632282053243646</v>
+        <v>0.06830951885504273</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1040177866859067</v>
+        <v>0.1056929645372731</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>93</v>
@@ -1194,19 +1194,19 @@
         <v>103965</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83480</v>
+        <v>84731</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>125372</v>
+        <v>123848</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1012497340490673</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08130001337694893</v>
+        <v>0.08251837834024732</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1220972901321891</v>
+        <v>0.1206130870060268</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>170</v>
@@ -1215,19 +1215,19 @@
         <v>189933</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>163819</v>
+        <v>162154</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>219727</v>
+        <v>219796</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09312155323356079</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08031815642038288</v>
+        <v>0.07950176083460216</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1077287753129496</v>
+        <v>0.1077628941279445</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>393780</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>364680</v>
+        <v>365442</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>420931</v>
+        <v>421405</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5197574616136659</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4813475124848974</v>
+        <v>0.4823535833288072</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5555948738378441</v>
+        <v>0.556219580774662</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>372</v>
@@ -1340,19 +1340,19 @@
         <v>409900</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>376427</v>
+        <v>377320</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>436919</v>
+        <v>436842</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5302279325511975</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4869290304711547</v>
+        <v>0.4880850387747627</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5651784879026742</v>
+        <v>0.5650788573520981</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>730</v>
@@ -1361,19 +1361,19 @@
         <v>803680</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>757689</v>
+        <v>759481</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>843773</v>
+        <v>844845</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5250455023179096</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4949995865971853</v>
+        <v>0.4961703668097023</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.551238253610671</v>
+        <v>0.5519387066485081</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>252672</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>226918</v>
+        <v>226521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>282187</v>
+        <v>278802</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3335061186041037</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2995133287186448</v>
+        <v>0.2989889515090526</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3724635073312565</v>
+        <v>0.3679951290056258</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>223</v>
@@ -1411,19 +1411,19 @@
         <v>245752</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>220433</v>
+        <v>221712</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>274411</v>
+        <v>276761</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3178938693319376</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2851427705804797</v>
+        <v>0.2867972380423276</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3549664182543909</v>
+        <v>0.358005751462274</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>453</v>
@@ -1432,19 +1432,19 @@
         <v>498424</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>460759</v>
+        <v>456149</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>535707</v>
+        <v>534731</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3256212574427894</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3010150041529786</v>
+        <v>0.2980029191621197</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3499785546330526</v>
+        <v>0.3493404340258545</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>111171</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91021</v>
+        <v>92320</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>132248</v>
+        <v>132431</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1467364197822305</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1201397291226218</v>
+        <v>0.1218545229080562</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1745562033486262</v>
+        <v>0.1747981434708181</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -1482,19 +1482,19 @@
         <v>117411</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>98163</v>
+        <v>99578</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>140085</v>
+        <v>138762</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1518781981168649</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1269787268874713</v>
+        <v>0.1288092803633161</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1812080480719107</v>
+        <v>0.1794966341245783</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>208</v>
@@ -1503,19 +1503,19 @@
         <v>228582</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>202220</v>
+        <v>199877</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>259909</v>
+        <v>257565</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1493332402393011</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.132110604107192</v>
+        <v>0.1305800276053326</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1697993366341277</v>
+        <v>0.168267548687767</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>384775</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>354652</v>
+        <v>357622</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>415842</v>
+        <v>416791</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4064152423508781</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3745986169902383</v>
+        <v>0.3777352598721342</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4392295333141823</v>
+        <v>0.4402315798591452</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>406</v>
@@ -1628,19 +1628,19 @@
         <v>420983</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>390489</v>
+        <v>385160</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>455991</v>
+        <v>452613</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4009369889053149</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3718950184292709</v>
+        <v>0.3668196903137523</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4342776934285624</v>
+        <v>0.4310611352315252</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>768</v>
@@ -1649,19 +1649,19 @@
         <v>805758</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>762410</v>
+        <v>760457</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>851891</v>
+        <v>854245</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4035344855220177</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3818255233535164</v>
+        <v>0.3808471955047563</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4266386830237981</v>
+        <v>0.4278176920057526</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>364342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>329850</v>
+        <v>335307</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>392429</v>
+        <v>394784</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3848327190723788</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3484007973273523</v>
+        <v>0.3541656947353301</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4144998677236099</v>
+        <v>0.4169870021262327</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>385</v>
@@ -1699,19 +1699,19 @@
         <v>408789</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>374176</v>
+        <v>378543</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>439264</v>
+        <v>444229</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3893233540646201</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3563583893499317</v>
+        <v>0.3605173989405466</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4183475113202026</v>
+        <v>0.4230761949484477</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>735</v>
@@ -1720,19 +1720,19 @@
         <v>773130</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>728369</v>
+        <v>726801</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>817434</v>
+        <v>818913</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3871941336269201</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3647772619534931</v>
+        <v>0.3639918680208277</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4093819980489444</v>
+        <v>0.4101228728157405</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>197637</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>175013</v>
+        <v>171154</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>226279</v>
+        <v>222540</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2087520385767431</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1848565059095554</v>
+        <v>0.1807803206814708</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.239005628736702</v>
+        <v>0.2350564291503011</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>210</v>
@@ -1770,19 +1770,19 @@
         <v>220226</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>193145</v>
+        <v>191491</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>246974</v>
+        <v>246820</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2097396570300649</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1839482128551137</v>
+        <v>0.1823729826248994</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.235213434247259</v>
+        <v>0.2350669385403559</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>407</v>
@@ -1791,19 +1791,19 @@
         <v>417863</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>385032</v>
+        <v>381781</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>459467</v>
+        <v>457719</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2092713808510622</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1928290679922253</v>
+        <v>0.1912011629997658</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2301074194258295</v>
+        <v>0.2292316636618177</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>1796962</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1732979</v>
+        <v>1731659</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1857665</v>
+        <v>1852071</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5256756711947308</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5069581440984481</v>
+        <v>0.50657213887653</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5434332395699636</v>
+        <v>0.5417969117217352</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1703</v>
@@ -1916,19 +1916,19 @@
         <v>1840410</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1777896</v>
+        <v>1782432</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1900121</v>
+        <v>1902323</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5194346907662244</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5017908358997141</v>
+        <v>0.5030713156604877</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.536287458036077</v>
+        <v>0.5369090484175388</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3376</v>
@@ -1937,19 +1937,19 @@
         <v>3637371</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3558016</v>
+        <v>3552670</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3726257</v>
+        <v>3721044</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5224992773153929</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5111000339934109</v>
+        <v>0.5103320930241706</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5352674790518265</v>
+        <v>0.5345186722314305</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>1189930</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1129041</v>
+        <v>1135896</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1250584</v>
+        <v>1252392</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.34809707311018</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3302849005750048</v>
+        <v>0.3322902315958866</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3658404606759024</v>
+        <v>0.3663695138018846</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1130</v>
@@ -1987,19 +1987,19 @@
         <v>1217933</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1154938</v>
+        <v>1157714</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1278249</v>
+        <v>1281491</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3437478112399983</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3259681379087938</v>
+        <v>0.3267517049848681</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.360771204295286</v>
+        <v>0.3616862390299574</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2247</v>
@@ -2008,19 +2008,19 @@
         <v>2407863</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2328195</v>
+        <v>2326098</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2494897</v>
+        <v>2490070</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3458834836041176</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3344394000775755</v>
+        <v>0.3341381543820544</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3583857327970378</v>
+        <v>0.3576922958243764</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>431493</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>394363</v>
+        <v>394840</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>476815</v>
+        <v>475089</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1262272556950892</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1153653625210623</v>
+        <v>0.1155048688248957</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1394853820204447</v>
+        <v>0.1389806353625838</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>452</v>
@@ -2058,19 +2058,19 @@
         <v>484758</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>441518</v>
+        <v>443447</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>526637</v>
+        <v>529688</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1368174979937774</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1246135632868042</v>
+        <v>0.1251579569178093</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1486372096105522</v>
+        <v>0.1494983313696113</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>863</v>
@@ -2079,19 +2079,19 @@
         <v>916252</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>857500</v>
+        <v>863819</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>969830</v>
+        <v>978082</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1316172390804894</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.123177742355494</v>
+        <v>0.1240854598333372</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1393136675283442</v>
+        <v>0.1404990635097423</v>
       </c>
     </row>
     <row r="23">
@@ -2423,19 +2423,19 @@
         <v>560352</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>538435</v>
+        <v>539293</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>578787</v>
+        <v>580219</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8344306454017318</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.801794113704332</v>
+        <v>0.803071031826434</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8618822034853099</v>
+        <v>0.8640153839499572</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>548</v>
@@ -2444,19 +2444,19 @@
         <v>555481</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>536191</v>
+        <v>535224</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>573211</v>
+        <v>572102</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8308569170664151</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8020039969655248</v>
+        <v>0.8005572258024708</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8573764238255079</v>
+        <v>0.8557183643841264</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1092</v>
@@ -2465,19 +2465,19 @@
         <v>1115833</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1086253</v>
+        <v>1089604</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1140343</v>
+        <v>1143810</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8326477463513818</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8105751289455392</v>
+        <v>0.8130755647237066</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8509374440857288</v>
+        <v>0.8535249295263524</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>91365</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>74026</v>
+        <v>73314</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>111487</v>
+        <v>113011</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1360539946182719</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1102340761302236</v>
+        <v>0.1091736835587356</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1660173791143541</v>
+        <v>0.1682866153963301</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -2515,19 +2515,19 @@
         <v>81138</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>65921</v>
+        <v>66527</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>99207</v>
+        <v>98589</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1213622812445245</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09860088029887303</v>
+        <v>0.09950789109441165</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1483881705159663</v>
+        <v>0.1474642998080408</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>170</v>
@@ -2536,19 +2536,19 @@
         <v>172504</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>150227</v>
+        <v>148509</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>200891</v>
+        <v>197229</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1287244386575647</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1121010066772291</v>
+        <v>0.1108190152131004</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.14990706547623</v>
+        <v>0.1471749835158567</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>19821</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12533</v>
+        <v>11924</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30085</v>
+        <v>31938</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02951535997999626</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01866314709310228</v>
+        <v>0.01775687889803051</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04480029212252633</v>
+        <v>0.04755896336457214</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -2586,19 +2586,19 @@
         <v>31945</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22073</v>
+        <v>21783</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44568</v>
+        <v>44864</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0477808016890604</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03301530983158803</v>
+        <v>0.03258249135375917</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06666270833890531</v>
+        <v>0.06710459254708127</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>49</v>
@@ -2607,19 +2607,19 @@
         <v>51765</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>38629</v>
+        <v>39226</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>66859</v>
+        <v>69167</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03862781499105351</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02882542439581687</v>
+        <v>0.02927106213355169</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04989111746796247</v>
+        <v>0.0516131294208013</v>
       </c>
     </row>
     <row r="7">
@@ -2711,19 +2711,19 @@
         <v>697753</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>667037</v>
+        <v>668846</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>726556</v>
+        <v>732635</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6858127012388332</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6556223183949756</v>
+        <v>0.6574004008605047</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7141226808947296</v>
+        <v>0.7200981309207574</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>677</v>
@@ -2732,19 +2732,19 @@
         <v>726409</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>693429</v>
+        <v>698278</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>758455</v>
+        <v>756196</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7010253081616369</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6691980909839956</v>
+        <v>0.6738779680694487</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7319514025934656</v>
+        <v>0.729771332994963</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1329</v>
@@ -2753,19 +2753,19 @@
         <v>1424161</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1382250</v>
+        <v>1380360</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1463996</v>
+        <v>1467100</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6934886327249836</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6730804584480347</v>
+        <v>0.6721598386421487</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7128863347986133</v>
+        <v>0.7143976074875537</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>254822</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>228184</v>
+        <v>225020</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>284060</v>
+        <v>282420</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2504612553744118</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.224279184358489</v>
+        <v>0.221169609035591</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2791995365953359</v>
+        <v>0.2775870807281632</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>226</v>
@@ -2803,19 +2803,19 @@
         <v>239594</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>211758</v>
+        <v>213597</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>269166</v>
+        <v>267628</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2312221686798918</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2043585138285371</v>
+        <v>0.2061335069331885</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2597599312546994</v>
+        <v>0.2582762301628957</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>460</v>
@@ -2824,19 +2824,19 @@
         <v>494416</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>457249</v>
+        <v>454421</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>533510</v>
+        <v>531877</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2407536548249049</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2226553846000616</v>
+        <v>0.2212782241539962</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2597902336130546</v>
+        <v>0.258995160900141</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>64836</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50062</v>
+        <v>49207</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82236</v>
+        <v>80910</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.063726043386755</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04920503093913724</v>
+        <v>0.04836521964756587</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08082912370267818</v>
+        <v>0.07952539521820824</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -2874,19 +2874,19 @@
         <v>70206</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55349</v>
+        <v>56210</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87249</v>
+        <v>88459</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06775252315847122</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05341498959906458</v>
+        <v>0.05424597443188522</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08419996502401327</v>
+        <v>0.08536791793738478</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>128</v>
@@ -2895,19 +2895,19 @@
         <v>135041</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113055</v>
+        <v>113813</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>160564</v>
+        <v>158379</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06575771245011156</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05505144858130001</v>
+        <v>0.0554205594039289</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07818603621287573</v>
+        <v>0.07712197990338319</v>
       </c>
     </row>
     <row r="11">
@@ -2999,19 +2999,19 @@
         <v>451379</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>423522</v>
+        <v>419730</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>478625</v>
+        <v>478664</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5967270844170687</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5598994241104294</v>
+        <v>0.5548869759751437</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6327459425570681</v>
+        <v>0.6327972488076197</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>437</v>
@@ -3020,19 +3020,19 @@
         <v>466364</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>438824</v>
+        <v>434975</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>494912</v>
+        <v>491142</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5957987586054789</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5606152399867462</v>
+        <v>0.5556977825809499</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6322696723099901</v>
+        <v>0.6274530703753817</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>849</v>
@@ -3041,19 +3041,19 @@
         <v>917744</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>881572</v>
+        <v>873605</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>959127</v>
+        <v>953349</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5962549812995699</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5727542187740841</v>
+        <v>0.5675779492996571</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6231418310568676</v>
+        <v>0.6193874497886838</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>219783</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>195254</v>
+        <v>193218</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>245936</v>
+        <v>245551</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2905551006451182</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.258127869574698</v>
+        <v>0.2554357741629627</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3251287456676821</v>
+        <v>0.3246198672559916</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>194</v>
@@ -3091,19 +3091,19 @@
         <v>204592</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>180601</v>
+        <v>181753</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>229438</v>
+        <v>231418</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2613744099037041</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2307244510922584</v>
+        <v>0.2321964524567323</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2931165522108549</v>
+        <v>0.2956452554843839</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>394</v>
@@ -3112,19 +3112,19 @@
         <v>424375</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>387643</v>
+        <v>391812</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>460475</v>
+        <v>464249</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2757151652498102</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2518500667373521</v>
+        <v>0.2545586103397729</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2991687707377933</v>
+        <v>0.3016211890070467</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>85263</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>68573</v>
+        <v>68374</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104063</v>
+        <v>105114</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1127178149378131</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09065374151858373</v>
+        <v>0.09039077973509108</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1375722055797878</v>
+        <v>0.1389609326153892</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>103</v>
@@ -3162,19 +3162,19 @@
         <v>111798</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93122</v>
+        <v>92310</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>133263</v>
+        <v>133762</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1428268314908171</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1189671419772067</v>
+        <v>0.1179298388283337</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.170248657729961</v>
+        <v>0.1708857705522561</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>184</v>
@@ -3183,19 +3183,19 @@
         <v>197061</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>172219</v>
+        <v>171726</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>228664</v>
+        <v>223785</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1280298534506199</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1118902897213737</v>
+        <v>0.1115698282622268</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1485621226459721</v>
+        <v>0.1453925376661876</v>
       </c>
     </row>
     <row r="15">
@@ -3287,19 +3287,19 @@
         <v>499695</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>467346</v>
+        <v>469345</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>532771</v>
+        <v>529357</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5353885453889542</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5007294091312928</v>
+        <v>0.5028711142051238</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5708277087458974</v>
+        <v>0.5671691169477736</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>520</v>
@@ -3308,19 +3308,19 @@
         <v>559856</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>525922</v>
+        <v>523468</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>592895</v>
+        <v>590670</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5389875415837702</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5063184262373364</v>
+        <v>0.5039566231021763</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5707953141626996</v>
+        <v>0.5686534557906721</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1024</v>
@@ -3329,19 +3329,19 @@
         <v>1059550</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1015381</v>
+        <v>1014985</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1104833</v>
+        <v>1103960</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5372842088381382</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5148866452490541</v>
+        <v>0.5146856412588287</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5602466565875025</v>
+        <v>0.5598038195618977</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>268230</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>241925</v>
+        <v>237564</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>298899</v>
+        <v>296651</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2873901669775583</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2592062618662254</v>
+        <v>0.2545332398960847</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3202499041928574</v>
+        <v>0.3178414301957997</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>259</v>
@@ -3379,19 +3379,19 @@
         <v>281331</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>252441</v>
+        <v>250452</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>310870</v>
+        <v>312506</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2708442874272512</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2430315858430141</v>
+        <v>0.2411165394653219</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2992826151894371</v>
+        <v>0.3008578616385096</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>524</v>
@@ -3400,19 +3400,19 @@
         <v>549561</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>509965</v>
+        <v>511496</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>590571</v>
+        <v>591295</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2786751205034058</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2585966092414058</v>
+        <v>0.2593732467336513</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2994706798975804</v>
+        <v>0.2998378282651281</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>165406</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>141932</v>
+        <v>142771</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>190425</v>
+        <v>190950</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1772212876334875</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1520703008901747</v>
+        <v>0.1529698313674299</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2040271871752574</v>
+        <v>0.2045893356333054</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>175</v>
@@ -3450,19 +3450,19 @@
         <v>197531</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>174840</v>
+        <v>171691</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>225417</v>
+        <v>226127</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1901681709889787</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1683227885660533</v>
+        <v>0.1652913943407494</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2170147275911913</v>
+        <v>0.2176987244558623</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>334</v>
@@ -3471,19 +3471,19 @@
         <v>362937</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>325985</v>
+        <v>328652</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>403823</v>
+        <v>399240</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.184040670658456</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1653027222073328</v>
+        <v>0.1666552778943229</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.204773406670517</v>
+        <v>0.2024494808284125</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>2209179</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2154615</v>
+        <v>2151178</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2267242</v>
+        <v>2266554</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6538538539363146</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6377044840372879</v>
+        <v>0.6366872156454708</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6710389559939806</v>
+        <v>0.6708354661014242</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2182</v>
@@ -3596,19 +3596,19 @@
         <v>2308110</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2254578</v>
+        <v>2242659</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2369215</v>
+        <v>2356425</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.654551726423493</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6393707902999723</v>
+        <v>0.6359907465972054</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6718804711892964</v>
+        <v>0.6682532141897825</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4294</v>
@@ -3617,19 +3617,19 @@
         <v>4517288</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4439469</v>
+        <v>4434038</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4602705</v>
+        <v>4594237</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6542102460757706</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6429401296433966</v>
+        <v>0.6421535822020299</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6665805876095303</v>
+        <v>0.665354160295683</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>834200</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>780101</v>
+        <v>782119</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>885742</v>
+        <v>887512</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2468995485229802</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2308877081372305</v>
+        <v>0.2314850306233319</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2621544549919323</v>
+        <v>0.2626782510289267</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>762</v>
@@ -3667,19 +3667,19 @@
         <v>806656</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>758299</v>
+        <v>761692</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>861447</v>
+        <v>862855</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2287576755365146</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.215044460154565</v>
+        <v>0.2160066832057183</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.244295865999957</v>
+        <v>0.2446950491819385</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1548</v>
@@ -3688,19 +3688,19 @@
         <v>1640856</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1563845</v>
+        <v>1578561</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1710943</v>
+        <v>1718385</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2376347887765021</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2264817791953571</v>
+        <v>0.2286129225782681</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2477850881856376</v>
+        <v>0.2488628467009869</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>335325</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>301694</v>
+        <v>299768</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>373409</v>
+        <v>369970</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09924659754070522</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08929268459894601</v>
+        <v>0.08872270090245676</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1105184670265303</v>
+        <v>0.1095005953473307</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>377</v>
@@ -3738,19 +3738,19 @@
         <v>411480</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>370752</v>
+        <v>375889</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>450535</v>
+        <v>456161</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1166905980399923</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1051408066763257</v>
+        <v>0.1065976286329988</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1277661851071534</v>
+        <v>0.1293615610354924</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>695</v>
@@ -3759,19 +3759,19 @@
         <v>746805</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>699185</v>
+        <v>694821</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>806327</v>
+        <v>800290</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1081549651477273</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1012585991592982</v>
+        <v>0.1006265075359082</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1167752264480055</v>
+        <v>0.1159009151423893</v>
       </c>
     </row>
     <row r="23">
@@ -4103,19 +4103,19 @@
         <v>616616</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>596511</v>
+        <v>599839</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>631129</v>
+        <v>631848</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8941332876259045</v>
+        <v>0.8941332876259043</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8649797368646192</v>
+        <v>0.8698056657460692</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9151789163885473</v>
+        <v>0.9162212261456308</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1117</v>
@@ -4124,19 +4124,19 @@
         <v>661453</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>645319</v>
+        <v>645752</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>674236</v>
+        <v>674696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9009408015822434</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8789657086097535</v>
+        <v>0.8795549231474101</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9183528215694799</v>
+        <v>0.9189792996991498</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1764</v>
@@ -4145,19 +4145,19 @@
         <v>1278068</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1254159</v>
+        <v>1255588</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1298279</v>
+        <v>1298698</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8976435606187653</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8808508643515108</v>
+        <v>0.8818548420575606</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9118382598389203</v>
+        <v>0.9121328534009471</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>49989</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39185</v>
+        <v>38189</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>68666</v>
+        <v>65170</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07248676377291545</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05682098328694864</v>
+        <v>0.05537705484710115</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09957015958853126</v>
+        <v>0.09450140721117313</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>81</v>
@@ -4195,19 +4195,19 @@
         <v>48486</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38491</v>
+        <v>38306</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>61727</v>
+        <v>61494</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06604151522144477</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05242713871738913</v>
+        <v>0.05217476339076332</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08407629940236114</v>
+        <v>0.08375810314411385</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>137</v>
@@ -4216,19 +4216,19 @@
         <v>98475</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>82343</v>
+        <v>82535</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>118439</v>
+        <v>117736</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06916329178775198</v>
+        <v>0.06916329178775196</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05783319818619894</v>
+        <v>0.05796769413244374</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08318517569608087</v>
+        <v>0.08269121905044692</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>23020</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14873</v>
+        <v>13898</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37568</v>
+        <v>36789</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.03337994860118012</v>
+        <v>0.03337994860118011</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02156681399612968</v>
+        <v>0.0201523379268081</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05447673689754998</v>
+        <v>0.05334626910613818</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>43</v>
@@ -4266,19 +4266,19 @@
         <v>24241</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17045</v>
+        <v>16881</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34265</v>
+        <v>34951</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03301768319631168</v>
+        <v>0.03301768319631167</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02321643989214081</v>
+        <v>0.022993405861235</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04667166590466947</v>
+        <v>0.04760591621226672</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -4287,19 +4287,19 @@
         <v>47261</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>36048</v>
+        <v>35577</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>64223</v>
+        <v>63855</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03319314759348284</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02531821429963467</v>
+        <v>0.02498739781574533</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04510682702710031</v>
+        <v>0.04484836255687794</v>
       </c>
     </row>
     <row r="7">
@@ -4391,19 +4391,19 @@
         <v>848425</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>817516</v>
+        <v>818532</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>876412</v>
+        <v>878224</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8092849665392674</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7798017687750294</v>
+        <v>0.780771273067158</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8359808859666588</v>
+        <v>0.8377089456900435</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1203</v>
@@ -4412,19 +4412,19 @@
         <v>840681</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>812206</v>
+        <v>815111</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>863504</v>
+        <v>863814</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7851045010337341</v>
+        <v>0.7851045010337337</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7585119754284271</v>
+        <v>0.7612251254053856</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.80641871811945</v>
+        <v>0.806707953835568</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1986</v>
@@ -4433,19 +4433,19 @@
         <v>1689106</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1650215</v>
+        <v>1651831</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1727536</v>
+        <v>1727507</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7970667954409337</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7787141905658939</v>
+        <v>0.7794769945847221</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8152010172003619</v>
+        <v>0.8151875522710946</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>134734</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>110831</v>
+        <v>108975</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>158325</v>
+        <v>161215</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1285187294950875</v>
+        <v>0.1285187294950874</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1057184070920538</v>
+        <v>0.1039477895131448</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1510208831005641</v>
+        <v>0.1537774881408021</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>209</v>
@@ -4483,19 +4483,19 @@
         <v>148508</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>128809</v>
+        <v>128355</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>171680</v>
+        <v>167835</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1386902900395872</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1202933686578028</v>
+        <v>0.1198691723577543</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1603304279045443</v>
+        <v>0.1567399219522066</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>327</v>
@@ -4504,19 +4504,19 @@
         <v>283242</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>251094</v>
+        <v>253416</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>315989</v>
+        <v>314576</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1336583272849364</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1184880770626624</v>
+        <v>0.1195837020114051</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1491108416448594</v>
+        <v>0.1484441512153608</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>65204</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51054</v>
+        <v>49869</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84655</v>
+        <v>85591</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06219630396564499</v>
+        <v>0.062196303965645</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0486988512118858</v>
+        <v>0.04756834888117421</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08074926139799257</v>
+        <v>0.08164260883262948</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -4554,19 +4554,19 @@
         <v>81600</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67176</v>
+        <v>66081</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>100253</v>
+        <v>98516</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0762052089266789</v>
+        <v>0.07620520892667888</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06273510230662782</v>
+        <v>0.0617123880876392</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0936250040907107</v>
+        <v>0.09200293309242975</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>166</v>
@@ -4575,19 +4575,19 @@
         <v>146804</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>125619</v>
+        <v>125280</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173782</v>
+        <v>171212</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06927487727412988</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05927803241330059</v>
+        <v>0.05911794284325234</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0820055936636819</v>
+        <v>0.08079270119535213</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>585674</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>556618</v>
+        <v>554789</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>612078</v>
+        <v>614228</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7303620041495755</v>
+        <v>0.7303620041495754</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6941285126734864</v>
+        <v>0.6918473047880813</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7632897628206267</v>
+        <v>0.765971024855343</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>794</v>
@@ -4700,19 +4700,19 @@
         <v>611091</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>586987</v>
+        <v>591088</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>633201</v>
+        <v>633777</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7552284653846374</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7254393508773869</v>
+        <v>0.7305070297279251</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7825532271578102</v>
+        <v>0.7832651042024799</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1278</v>
@@ -4721,19 +4721,19 @@
         <v>1196765</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1156801</v>
+        <v>1156894</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1230080</v>
+        <v>1231646</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7428512051246472</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7180445919150665</v>
+        <v>0.7181022276932095</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7635303416376927</v>
+        <v>0.7645022724975664</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>151843</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>125540</v>
+        <v>127367</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>175842</v>
+        <v>181208</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1893550263026062</v>
+        <v>0.1893550263026061</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1565535553612414</v>
+        <v>0.1588326091332741</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2192834695394554</v>
+        <v>0.2259748673961122</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>169</v>
@@ -4771,19 +4771,19 @@
         <v>131827</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>114163</v>
+        <v>111934</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>154944</v>
+        <v>150788</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.162920696733604</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1410908979812861</v>
+        <v>0.1383355823997359</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1914910638295215</v>
+        <v>0.1863542453566024</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>303</v>
@@ -4792,19 +4792,19 @@
         <v>283670</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>253733</v>
+        <v>254968</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>315961</v>
+        <v>317608</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.176078362144095</v>
+        <v>0.1760783621440951</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1574959026716932</v>
+        <v>0.1582626093288144</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1961219009399635</v>
+        <v>0.1971443880997216</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>64379</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48882</v>
+        <v>50469</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>81685</v>
+        <v>84001</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08028296954781843</v>
+        <v>0.08028296954781841</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06095764378490254</v>
+        <v>0.06293657419221745</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1018654414420402</v>
+        <v>0.1047529927378341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>82</v>
@@ -4842,19 +4842,19 @@
         <v>66229</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53302</v>
+        <v>51965</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>80942</v>
+        <v>82738</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.08185083788175866</v>
+        <v>0.08185083788175865</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06587411899047349</v>
+        <v>0.06422225900615072</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1000341469024442</v>
+        <v>0.1022528301057346</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>139</v>
@@ -4863,19 +4863,19 @@
         <v>130608</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>110009</v>
+        <v>108576</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>157472</v>
+        <v>155295</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.08107043273125766</v>
+        <v>0.08107043273125768</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06828462746416172</v>
+        <v>0.0673949736721757</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09774517503586951</v>
+        <v>0.09639426352352268</v>
       </c>
     </row>
     <row r="15">
@@ -4967,19 +4967,19 @@
         <v>538614</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>503786</v>
+        <v>502997</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>571215</v>
+        <v>570604</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5446359919301832</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.509417856427227</v>
+        <v>0.5086201062069643</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5776012525051581</v>
+        <v>0.5769831930708126</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>869</v>
@@ -4988,19 +4988,19 @@
         <v>610571</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>577439</v>
+        <v>578381</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>638740</v>
+        <v>638097</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5462733823701124</v>
+        <v>0.5462733823701125</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5166302220824845</v>
+        <v>0.5174732398224434</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.57147580442753</v>
+        <v>0.5709005313606761</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1414</v>
@@ -5009,19 +5009,19 @@
         <v>1149186</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1107834</v>
+        <v>1106169</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1193622</v>
+        <v>1196210</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5455047257264137</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.525875286040226</v>
+        <v>0.525085115348915</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5665979139758796</v>
+        <v>0.5678263961831566</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>276391</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>248339</v>
+        <v>246986</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>309600</v>
+        <v>306350</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2794807837984158</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.251115290607599</v>
+        <v>0.2497476317298917</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3130610902078767</v>
+        <v>0.3097745243218689</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>399</v>
@@ -5059,19 +5059,19 @@
         <v>292712</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>265533</v>
+        <v>267861</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>319708</v>
+        <v>319837</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2618869909886323</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2375703460702842</v>
+        <v>0.2396531805380647</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2860398779143396</v>
+        <v>0.2861554507809422</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>688</v>
@@ -5080,19 +5080,19 @@
         <v>569103</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>526885</v>
+        <v>531489</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>609284</v>
+        <v>606840</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2701462218973479</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.250105949554203</v>
+        <v>0.252291315924841</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.289219908409807</v>
+        <v>0.2880596293052424</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>173939</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>148021</v>
+        <v>147147</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>198731</v>
+        <v>203409</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.175883224271401</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1496756287891774</v>
+        <v>0.1487920422893273</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2009531507205994</v>
+        <v>0.2056829516871155</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>292</v>
@@ -5130,19 +5130,19 @@
         <v>214420</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>189202</v>
+        <v>192133</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>237449</v>
+        <v>240612</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1918396266412553</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1692779575034626</v>
+        <v>0.1719001784920755</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2124433067823686</v>
+        <v>0.2152736679788141</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>463</v>
@@ -5151,19 +5151,19 @@
         <v>388358</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>354816</v>
+        <v>352351</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>425073</v>
+        <v>423438</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.1843490523762384</v>
+        <v>0.1843490523762383</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1684269234659299</v>
+        <v>0.1672568302208287</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.201777073822426</v>
+        <v>0.2010007991223774</v>
       </c>
     </row>
     <row r="19">
@@ -5255,19 +5255,19 @@
         <v>2589330</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2531256</v>
+        <v>2530980</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2643398</v>
+        <v>2648270</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7337648008116096</v>
+        <v>0.7337648008116093</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7173078874965334</v>
+        <v>0.7172297073378675</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7490867893724441</v>
+        <v>0.7504672707167749</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3983</v>
@@ -5276,19 +5276,19 @@
         <v>2723796</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2668554</v>
+        <v>2673981</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2778348</v>
+        <v>2772083</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7298843552022475</v>
+        <v>0.7298843552022476</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7150814063464234</v>
+        <v>0.7165355485945526</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7445023502082274</v>
+        <v>0.7428236231186666</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6442</v>
@@ -5297,19 +5297,19 @@
         <v>5313125</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5242176</v>
+        <v>5234822</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5384922</v>
+        <v>5393941</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7317703337592339</v>
+        <v>0.7317703337592341</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7219985362106484</v>
+        <v>0.7209857598969429</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7416588314620817</v>
+        <v>0.7429009809105186</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>612957</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>565578</v>
+        <v>564346</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>661973</v>
+        <v>662481</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1736998638420416</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1602737150428949</v>
+        <v>0.1599244560675578</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1875899557615452</v>
+        <v>0.1877340133736321</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>858</v>
@@ -5347,19 +5347,19 @@
         <v>621533</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>581693</v>
+        <v>581323</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>662781</v>
+        <v>663097</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1665496185764158</v>
+        <v>0.1665496185764159</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1558739218323794</v>
+        <v>0.1557746124213193</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1776027835801711</v>
+        <v>0.1776872357492156</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1455</v>
@@ -5368,19 +5368,19 @@
         <v>1234490</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1173389</v>
+        <v>1165602</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1300369</v>
+        <v>1297366</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1700247888547027</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1616094497697025</v>
+        <v>0.1605369255850664</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1790982945595355</v>
+        <v>0.1786846242507224</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>326541</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>291187</v>
+        <v>293630</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>367351</v>
+        <v>371405</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.09253533534634889</v>
+        <v>0.09253533534634888</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0825167512110912</v>
+        <v>0.08320894188165891</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1040999616591277</v>
+        <v>0.1052486993874733</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>521</v>
@@ -5418,19 +5418,19 @@
         <v>386490</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>354780</v>
+        <v>348350</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>423209</v>
+        <v>419831</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1035660262213366</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09506882529079448</v>
+        <v>0.09334579823680818</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1134055467615257</v>
+        <v>0.1125002528412741</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>837</v>
@@ -5439,19 +5439,19 @@
         <v>713031</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>661824</v>
+        <v>659041</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>764578</v>
+        <v>764544</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.09820487738606345</v>
+        <v>0.09820487738606347</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09115219107520052</v>
+        <v>0.09076898392195146</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1053044253469403</v>
+        <v>0.1052997868239726</v>
       </c>
     </row>
     <row r="23">
